--- a/AdmxEmprd.xlsx
+++ b/AdmxEmprd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osborne1-my.sharepoint.com/personal/matheus_almeida_osborne_com_br/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{B7F1CBA4-E6A5-4B28-B396-82823D345BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED2DCE07-F689-4879-BE24-9CFFE208A918}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{B7F1CBA4-E6A5-4B28-B396-82823D345BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99D1173-C131-43F1-8D69-190A019143EC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA07F2F2-64A9-422B-A346-649C5134B655}"/>
   </bookViews>
@@ -56,18 +56,12 @@
     <t>2212 - IDEA INVEST. IMOBILIÁRIOS LTDA.</t>
   </si>
   <si>
-    <t>2314 - LILIAN STUHLBERGER</t>
-  </si>
-  <si>
     <t>2316 - MARCO AURÉLIO SIMÃO FREIRE</t>
   </si>
   <si>
     <t>2317 - LUIZ ALBERTO HESS BORGES</t>
   </si>
   <si>
-    <t>2405 - OTÁVIO UMADA</t>
-  </si>
-  <si>
     <t>2407 - SUN MORITZ ADMINISTRADORA</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>2507 - KATIA FERREIRA DE BARROS</t>
   </si>
   <si>
-    <t>2506 - KATIA FERREIRA DE BARROS</t>
-  </si>
-  <si>
     <t>2508 - GERALDO CARBONE (AP MAYRA)</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>2510 - SAMAUMA EVENTOS LTDA</t>
   </si>
   <si>
-    <t>Alana</t>
-  </si>
-  <si>
     <t>Maria Eduarda</t>
   </si>
   <si>
@@ -135,6 +123,18 @@
   </si>
   <si>
     <t>EMPRD</t>
+  </si>
+  <si>
+    <t>2515 - MARCO FREIRE (ÁREA EXTERNA)</t>
+  </si>
+  <si>
+    <t>2516 - JOSÉ CARLOS MORAES ABREU FILHO</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>2514 - FELIPE HESS BORGES</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +580,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -597,27 +597,27 @@
         <v>2317</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>2405</v>
+        <v>2514</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -625,13 +625,13 @@
         <v>2411</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -639,111 +639,111 @@
         <v>2508</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>2314</v>
+        <v>2407</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>2407</v>
+        <v>2412</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>2413</v>
+        <v>2503</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>2503</v>
+        <v>2511</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>2512</v>
+        <v>2516</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -751,13 +751,13 @@
         <v>2505</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -765,13 +765,13 @@
         <v>2316</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -779,13 +779,13 @@
         <v>2504</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -793,13 +793,13 @@
         <v>2509</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -807,27 +807,27 @@
         <v>2510</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>2506</v>
+        <v>2515</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -838,10 +838,10 @@
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -849,13 +849,13 @@
         <v>2507</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -866,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -877,13 +877,13 @@
         <v>2409</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/AdmxEmprd.xlsx
+++ b/AdmxEmprd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osborne1-my.sharepoint.com/personal/matheus_almeida_osborne_com_br/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{B7F1CBA4-E6A5-4B28-B396-82823D345BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A99D1173-C131-43F1-8D69-190A019143EC}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{B7F1CBA4-E6A5-4B28-B396-82823D345BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B512066E-89AF-47A0-ADF9-9A16D5CD9BAB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA07F2F2-64A9-422B-A346-649C5134B655}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>EMPREENDIMENTO</t>
   </si>
   <si>
-    <t>2128 - AMARANTO DE MARCO LOPES</t>
-  </si>
-  <si>
     <t>2212 - IDEA INVEST. IMOBILIÁRIOS LTDA.</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>2514 - FELIPE HESS BORGES</t>
+  </si>
+  <si>
+    <t>2506 - KATIA FERRIRA DE BARROS</t>
   </si>
 </sst>
 </file>
@@ -565,9 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6CD04-7390-4257-A4F5-773DF069E98F}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -580,7 +578,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -589,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -597,13 +595,13 @@
         <v>2317</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -611,13 +609,13 @@
         <v>2514</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -625,13 +623,13 @@
         <v>2411</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -639,13 +637,13 @@
         <v>2508</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -653,13 +651,13 @@
         <v>2407</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -667,13 +665,13 @@
         <v>2412</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -681,13 +679,13 @@
         <v>2413</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -695,13 +693,13 @@
         <v>2503</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -709,13 +707,13 @@
         <v>2511</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -723,13 +721,13 @@
         <v>2512</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -737,13 +735,13 @@
         <v>2516</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -751,13 +749,13 @@
         <v>2505</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -765,13 +763,13 @@
         <v>2316</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -779,13 +777,13 @@
         <v>2504</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -793,13 +791,13 @@
         <v>2509</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -807,13 +805,13 @@
         <v>2510</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -821,27 +819,27 @@
         <v>2515</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <v>2128</v>
+        <v>2506</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -849,13 +847,13 @@
         <v>2507</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -863,13 +861,13 @@
         <v>2212</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -877,13 +875,13 @@
         <v>2409</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/AdmxEmprd.xlsx
+++ b/AdmxEmprd.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osborne1-my.sharepoint.com/personal/matheus_almeida_osborne_com_br/Documents/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{B7F1CBA4-E6A5-4B28-B396-82823D345BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B512066E-89AF-47A0-ADF9-9A16D5CD9BAB}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="8_{B7F1CBA4-E6A5-4B28-B396-82823D345BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19A86941-F669-4C09-A76D-F40B4DA271D4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA07F2F2-64A9-422B-A346-649C5134B655}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>ADM</t>
   </si>
@@ -68,15 +71,6 @@
     <t>2411 - JOÃO CARLOS BEHISNELIAN</t>
   </si>
   <si>
-    <t>2412 - GABRIEL ACURCIO V. S. DE CARVALHO</t>
-  </si>
-  <si>
-    <t>2413 - FERNANDO VASCONCELLOS</t>
-  </si>
-  <si>
-    <t>2503 - KAENA PARTICIPAÇÕES LTDA</t>
-  </si>
-  <si>
     <t>2504 - MARIA ANGÉLICA A. MONTEIRO DA COSTA</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>2507 - KATIA FERREIRA DE BARROS</t>
   </si>
   <si>
-    <t>2508 - GERALDO CARBONE (AP MAYRA)</t>
-  </si>
-  <si>
     <t>2509 - RAFAEL CURSINO DE MOURA LEVY</t>
   </si>
   <si>
@@ -134,14 +125,116 @@
     <t>2514 - FELIPE HESS BORGES</t>
   </si>
   <si>
-    <t>2506 - KATIA FERRIRA DE BARROS</t>
+    <t>Executivo</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Igor Bueno</t>
+  </si>
+  <si>
+    <t>Najara Camargo</t>
+  </si>
+  <si>
+    <t>igor.bueno@osborne.com.br</t>
+  </si>
+  <si>
+    <t>najara.camargo@osborne.com.br</t>
+  </si>
+  <si>
+    <t>Julia Vigorito</t>
+  </si>
+  <si>
+    <t>Matheus Sanches</t>
+  </si>
+  <si>
+    <t>Vitor Ramos</t>
+  </si>
+  <si>
+    <t>julia.vigorito@osborne.com.br</t>
+  </si>
+  <si>
+    <t>matheus.sanches@osborne.com.br</t>
+  </si>
+  <si>
+    <t>vitor.ramos@osborne.com.br</t>
+  </si>
+  <si>
+    <t>Carolina Oliveira</t>
+  </si>
+  <si>
+    <t>Andre Pestana</t>
+  </si>
+  <si>
+    <t>Leonardo Devico</t>
+  </si>
+  <si>
+    <t>carolina.oliveira@osborne.com.br</t>
+  </si>
+  <si>
+    <t>andre.pestana@osborne.com.br</t>
+  </si>
+  <si>
+    <t>leonardo.devico@osborne.com.br</t>
+  </si>
+  <si>
+    <t>felipe.duarte@osborne.com.br</t>
+  </si>
+  <si>
+    <t>Felipe Duarte</t>
+  </si>
+  <si>
+    <t>Alberto Teixeira</t>
+  </si>
+  <si>
+    <t>alberto.teixeira@osborne.com.br</t>
+  </si>
+  <si>
+    <t>Caio Fausto</t>
+  </si>
+  <si>
+    <t>caio.fausto@osborne.com.br</t>
+  </si>
+  <si>
+    <t>Vitor Carvalho; Danielle Monteiro</t>
+  </si>
+  <si>
+    <t>vitor.carvalho@osborne.com.br; danielle.monteiro@osborne.com</t>
+  </si>
+  <si>
+    <t>2506 - KATIA FERREIRA DE BARROS</t>
+  </si>
+  <si>
+    <t>Coordenador</t>
+  </si>
+  <si>
+    <t>Felipe Schwartz</t>
+  </si>
+  <si>
+    <t>Yuri Vilhena</t>
+  </si>
+  <si>
+    <t>Leno Fagundes</t>
+  </si>
+  <si>
+    <t>Thiago Nery</t>
+  </si>
+  <si>
+    <t>2601 - REGINA CAMPOS SALLES MORAES ABREU</t>
+  </si>
+  <si>
+    <t>Marcos Varjão</t>
+  </si>
+  <si>
+    <t>marcos.varjao@osborne.com.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +250,13 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -204,18 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -224,6 +314,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -563,329 +669,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B6CD04-7390-4257-A4F5-773DF069E98F}">
-  <dimension ref="A1:D22"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="45" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>2212</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>2409</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2316</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>2504</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>2509</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>2510</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>2515</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2506</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>2507</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>2505</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>2407</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>2511</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>2512</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>2516</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>2317</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>2514</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>2317</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2514</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>2411</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2411</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>2601</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>2508</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>2407</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>2412</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>2413</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>2503</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>2511</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>2512</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>2516</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>2505</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>2316</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>2504</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>2509</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>2510</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>2515</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>2506</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>2507</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>2212</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="D19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>2409</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
+      <c r="E19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{FF584219-8DDB-4AF7-ABB3-AEBC92C6AED5}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{ADCA78C6-BD06-4E35-BDC7-DD5EB5EBF9DD}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>